--- a/cmc/CMC Readiness Questionnaire.xlsx
+++ b/cmc/CMC Readiness Questionnaire.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoundraPandian\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoundraPandian\work\Optum\fx\cmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307F264-D395-46BA-B326-37F7283908CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05604F60-0544-407A-86E7-0C9B711A7D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E5BB491-01C8-4695-863A-4FA1C0F822D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E5BB491-01C8-4695-863A-4FA1C0F822D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>Container Readiness</t>
   </si>
@@ -225,6 +227,69 @@
   </si>
   <si>
     <t>COE</t>
+  </si>
+  <si>
+    <t>30. Are there any matrix builds or parallel jobs that need to be replicated?</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>What is the current version control system?</t>
+  </si>
+  <si>
+    <t>What is the current branching strategy?</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>What is the current Jenkins version</t>
+  </si>
+  <si>
+    <t>How many number of pipelines are available for the application? What are they?</t>
+  </si>
+  <si>
+    <t>How each pipeline is triggered?</t>
+  </si>
+  <si>
+    <t>What are the various stages of each pipeline job?</t>
+  </si>
+  <si>
+    <t>Does the pipeline scripts (jenkinsfile) available in a code repository?</t>
+  </si>
+  <si>
+    <t>What are the pre-build tasks?</t>
+  </si>
+  <si>
+    <t>What are the post-build tasks?</t>
+  </si>
+  <si>
+    <t>How the build status is notified? - Started / Success / Failure / Long running / Terminated</t>
+  </si>
+  <si>
+    <t>What is the average build duration?</t>
+  </si>
+  <si>
+    <t>Are there any manual intervention to the CI/CD jobs? Provide details.</t>
+  </si>
+  <si>
+    <t>What are the parameters configured in Jenkins for these jobs?</t>
+  </si>
+  <si>
+    <t>What are the secrets configured in Jenkins for these jobs?</t>
+  </si>
+  <si>
+    <t>What is the capacity of Jenkins agent that executes these jobs? CPU, Memory, and Diskspace</t>
+  </si>
+  <si>
+    <t>What OS is required for the build agent - Windows or Linux</t>
+  </si>
+  <si>
+    <t>Which JDK and its version is required for build.</t>
+  </si>
+  <si>
+    <t>Is there any parellel steps or matrix builds configured?</t>
   </si>
 </sst>
 </file>
@@ -330,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,11 +410,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -357,7 +426,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402D70C6-1694-4DE5-B458-A0BE7AA817C6}">
   <dimension ref="B2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -711,10 +779,10 @@
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="5" t="s">
         <v>57</v>
       </c>
@@ -735,19 +803,19 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
@@ -1320,19 +1388,19 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>2</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
@@ -1568,4 +1636,788 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D7F087-5F64-48FD-80BA-7954328F63A7}">
+  <dimension ref="B2:J59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5F749A-B872-4216-8E0B-40ADF71E167F}">
+  <dimension ref="B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/cmc/CMC Readiness Questionnaire.xlsx
+++ b/cmc/CMC Readiness Questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoundraPandian\work\Optum\fx\cmc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05604F60-0544-407A-86E7-0C9B711A7D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05844887-1DB2-40D4-8C64-419FA99B2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E5BB491-01C8-4695-863A-4FA1C0F822D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2E5BB491-01C8-4695-863A-4FA1C0F822D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>Container Readiness</t>
   </si>
@@ -229,9 +229,6 @@
     <t>COE</t>
   </si>
   <si>
-    <t>30. Are there any matrix builds or parallel jobs that need to be replicated?</t>
-  </si>
-  <si>
     <t>SCM</t>
   </si>
   <si>
@@ -290,6 +287,81 @@
   </si>
   <si>
     <t>Is there any parellel steps or matrix builds configured?</t>
+  </si>
+  <si>
+    <t>Proposed State</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Alignment Work Items</t>
+  </si>
+  <si>
+    <t>Alignment Effort (Story Points)</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Workaround State</t>
+  </si>
+  <si>
+    <t>Cloud and On-Perm connectivity</t>
+  </si>
+  <si>
+    <t>OKNaaS (HCP Managed Kubernetes - Namespace as a Service)</t>
+  </si>
+  <si>
+    <t>AKS with additional effort required for setting up logging, monitoring, and management.</t>
+  </si>
+  <si>
+    <t>Update GitHub Actions workflows to deploy applications to OKNaaS</t>
+  </si>
+  <si>
+    <t>Azure Site-to-Site / Point-to=Site VPN</t>
+  </si>
+  <si>
+    <t>HCP Managed Network</t>
+  </si>
+  <si>
+    <t>Obtain CIDR for non-production and production Vnets from HCP</t>
+  </si>
+  <si>
+    <t>Create new non-production VNet with given CIDR using the existing networking terraform in a new workspace or state file</t>
+  </si>
+  <si>
+    <t>Create new Dev environment in new VNet using the existing dev terraform in a new workspace or state file</t>
+  </si>
+  <si>
+    <t>Create new production VNet with given CIDR using the existing networking terraform in a new workspace or state file</t>
+  </si>
+  <si>
+    <t>Create new Test environment in new VNet using the existing test terraform in a new workspace or state file</t>
+  </si>
+  <si>
+    <t>Create new Stage environment in new VNet using the existing stage terraform in a new workspace or state file</t>
+  </si>
+  <si>
+    <t>Create new production environment in new VNet using the existing production terraform in a new workspace or state file</t>
+  </si>
+  <si>
+    <t>Create new DR environment in new VNet using the existing DR terraform in a new workspace or state file</t>
+  </si>
+  <si>
+    <t>Perform data transfer, validate, and signoff</t>
+  </si>
+  <si>
+    <t>Perform DR test, and signoff</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Migrate configuration and secrets from AKS to OKNaaS (6 apps in 5 environments)</t>
+  </si>
+  <si>
+    <t>Testing and validation (6 apps in 5 environments)</t>
   </si>
 </sst>
 </file>
@@ -342,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -391,11 +463,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,6 +534,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D7F087-5F64-48FD-80BA-7954328F63A7}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1687,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="8"/>
@@ -1703,7 +1830,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1718,7 +1845,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1732,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8"/>
@@ -1748,7 +1875,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1763,7 +1890,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1778,7 +1905,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1793,7 +1920,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1808,7 +1935,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1823,7 +1950,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1838,7 +1965,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1853,7 +1980,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1868,7 +1995,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1883,7 +2010,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1898,7 +2025,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1913,7 +2040,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1928,7 +2055,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1943,7 +2070,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1958,7 +2085,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1973,7 +2100,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2403,20 +2530,260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5F749A-B872-4216-8E0B-40ADF71E167F}">
-  <dimension ref="B21"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="71.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>63</v>
+    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="17">
+        <f>SUM(F3:F5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="17">
+        <f>SUM(F7:F19)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="C7:C20"/>
+    <mergeCell ref="D7:D20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
